--- a/similarity_table_title.xlsx
+++ b/similarity_table_title.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mean of similarity</t>
   </si>
@@ -31,28 +31,19 @@
     <t>Computed Tomography (ct)</t>
   </si>
   <si>
-    <t>Emergency Radiology (er)</t>
-  </si>
-  <si>
-    <t>Biomarkers and Quantative imaging (bq)</t>
-  </si>
-  <si>
-    <t>Safety and Quality (sq)</t>
-  </si>
-  <si>
-    <t>Professionalism (pr)</t>
-  </si>
-  <si>
-    <t>Nuclear Medicine (nm)</t>
+    <t>Breast Imaging (br)</t>
+  </si>
+  <si>
+    <t>Geritourinary Radiology (gu)</t>
+  </si>
+  <si>
+    <t>Ultrasound (us)</t>
   </si>
   <si>
     <t>Chest Radiology (ch)</t>
   </si>
   <si>
-    <t>Breast Imaging (br)</t>
-  </si>
-  <si>
-    <t>Geritourinary Radiology (gu)</t>
+    <t>Interventional Radiology (ir)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +397,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.003011139392040991</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.02107797574428694</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +411,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.003958107933239666</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.03857886401984387</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.02689851704060314</v>
+        <v>0.216285536686771</v>
       </c>
       <c r="C4">
-        <v>0.05067972102989989</v>
+        <v>0.1302537377122266</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +439,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.09141002464719149</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05445426480717334</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +453,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01910293495498346</v>
+        <v>0.01136252133392825</v>
       </c>
       <c r="C6">
-        <v>0.05403125938893735</v>
+        <v>0.04853106736233735</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +467,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.02907852821912623</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.05366948107284659</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,55 +481,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.01112270901174773</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.05560858481602785</v>
       </c>
       <c r="D8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.06048006319738659</v>
-      </c>
-      <c r="C9">
-        <v>0.06830405236574713</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>0.140790883494103</v>
-      </c>
-      <c r="C10">
-        <v>0.06943194308788475</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/similarity_table_title.xlsx
+++ b/similarity_table_title.xlsx
@@ -397,10 +397,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003011139392040991</v>
+        <v>0.003374998590558752</v>
       </c>
       <c r="C2">
-        <v>0.02107797574428694</v>
+        <v>0.0236459363664146</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -425,10 +425,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.216285536686771</v>
+        <v>0.2307393176428526</v>
       </c>
       <c r="C4">
-        <v>0.1302537377122266</v>
+        <v>0.1409991438301644</v>
       </c>
       <c r="D4">
         <v>98</v>
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01136252133392825</v>
+        <v>0.01146414169361983</v>
       </c>
       <c r="C6">
-        <v>0.04853106736233735</v>
+        <v>0.04895474487947783</v>
       </c>
       <c r="D6">
         <v>96</v>
@@ -467,10 +467,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.02907852821912623</v>
+        <v>0.03083300495780911</v>
       </c>
       <c r="C7">
-        <v>0.05366948107284659</v>
+        <v>0.05682242393025253</v>
       </c>
       <c r="D7">
         <v>99</v>
@@ -481,10 +481,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.01112270901174773</v>
+        <v>0.01122025094545002</v>
       </c>
       <c r="C8">
-        <v>0.05560858481602785</v>
+        <v>0.05579377016739856</v>
       </c>
       <c r="D8">
         <v>96</v>
